--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1045">
   <si>
     <t>anchor score</t>
   </si>
@@ -352,598 +352,598 @@
     <t>complaint</t>
   </si>
   <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>cause</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>happy</t>
@@ -3514,10 +3514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K3">
         <v>0.9491525423728814</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K6">
         <v>0.8346456692913385</v>
@@ -3796,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K7">
         <v>0.7777777777777778</v>
@@ -3896,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K9">
         <v>0.7707006369426752</v>
@@ -3946,7 +3946,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K10">
         <v>0.704225352112676</v>
@@ -4046,28 +4046,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="K12">
-        <v>0.6796536796536796</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4096,28 +4096,28 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>305</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4146,7 +4146,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K14">
         <v>0.6507936507936508</v>
@@ -4196,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K15">
         <v>0.6388888888888888</v>
@@ -4246,28 +4246,28 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="K16">
-        <v>0.5920245398773006</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L16">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="N16">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4296,28 +4296,28 @@
         <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="K17">
-        <v>0.574468085106383</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4346,28 +4346,28 @@
         <v>108</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="K18">
-        <v>0.5681818181818182</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>38</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4396,7 +4396,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K19">
         <v>0.5654450261780105</v>
@@ -4446,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K20">
         <v>0.5588235294117647</v>
@@ -4496,7 +4496,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K21">
         <v>0.5294117647058824</v>
@@ -4546,7 +4546,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K22">
         <v>0.4814814814814815</v>
@@ -4646,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K24">
         <v>0.456140350877193</v>
@@ -4746,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K26">
         <v>0.4375</v>
@@ -4896,7 +4896,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K29">
         <v>0.40625</v>
@@ -5046,7 +5046,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K32">
         <v>0.3744075829383886</v>
@@ -5196,7 +5196,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K35">
         <v>0.3617021276595745</v>
@@ -5696,7 +5696,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K45">
         <v>0.3291139240506329</v>
@@ -5846,7 +5846,7 @@
         <v>38</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K48">
         <v>0.3166666666666667</v>
@@ -6046,7 +6046,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K52">
         <v>0.3138686131386861</v>
@@ -6096,7 +6096,7 @@
         <v>6</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K53">
         <v>0.3125</v>
@@ -6346,7 +6346,7 @@
         <v>24</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K58">
         <v>0.2962962962962963</v>
@@ -6596,7 +6596,7 @@
         <v>15</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K63">
         <v>0.2716049382716049</v>
@@ -6696,7 +6696,7 @@
         <v>4</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K65">
         <v>0.2678571428571428</v>
@@ -6796,7 +6796,7 @@
         <v>13</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K67">
         <v>0.2638888888888889</v>
@@ -6896,7 +6896,7 @@
         <v>25</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K69">
         <v>0.2628205128205128</v>
@@ -7346,7 +7346,7 @@
         <v>17</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K78">
         <v>0.2422360248447205</v>
@@ -7396,7 +7396,7 @@
         <v>6</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K79">
         <v>0.2405660377358491</v>
@@ -7596,7 +7596,7 @@
         <v>32</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K83">
         <v>0.237037037037037</v>
@@ -7646,7 +7646,7 @@
         <v>13</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K84">
         <v>0.2330827067669173</v>
@@ -7696,7 +7696,7 @@
         <v>13</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K85">
         <v>0.231404958677686</v>
@@ -8046,7 +8046,7 @@
         <v>23</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K92">
         <v>0.2262773722627737</v>
@@ -8346,7 +8346,7 @@
         <v>8</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K98">
         <v>0.2234042553191489</v>
@@ -8396,7 +8396,7 @@
         <v>25</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K99">
         <v>0.2230769230769231</v>
@@ -8746,7 +8746,7 @@
         <v>9</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K106">
         <v>0.21875</v>
@@ -8775,25 +8775,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.0975609756097561</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>368</v>
@@ -8825,28 +8825,28 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.09523809523809523</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K108">
         <v>0.2157434402332362</v>
@@ -8875,28 +8875,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C109">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K109">
         <v>0.2142857142857143</v>
@@ -8925,25 +8925,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.09259259259259259</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>369</v>
@@ -8996,7 +8996,7 @@
         <v>10</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K111">
         <v>0.213963963963964</v>
@@ -9031,22 +9031,22 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>10</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K112">
         <v>0.2112676056338028</v>
@@ -9131,16 +9131,16 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>10</v>
@@ -9231,16 +9231,16 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>10</v>
@@ -9325,25 +9325,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>375</v>
@@ -9375,25 +9375,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>376</v>
@@ -9425,13 +9425,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>377</v>
@@ -9475,25 +9475,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.08333333333333333</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>378</v>
@@ -9525,25 +9525,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>379</v>
@@ -9575,25 +9575,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08053691275167785</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>0.75</v>
+      </c>
+      <c r="F123">
+        <v>0.25</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123">
         <v>12</v>
-      </c>
-      <c r="D123">
-        <v>12</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>137</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>380</v>
@@ -9628,22 +9628,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
         <v>3</v>
       </c>
-      <c r="D124">
-        <v>124</v>
-      </c>
       <c r="E124">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F124">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>381</v>
@@ -9675,25 +9675,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F125">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>382</v>
@@ -9725,25 +9725,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>383</v>
@@ -9775,25 +9775,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>384</v>
@@ -9825,25 +9825,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>385</v>
@@ -9896,7 +9896,7 @@
         <v>13</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K129">
         <v>0.2</v>
@@ -9931,13 +9931,13 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -9975,25 +9975,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>70</v>
@@ -10025,25 +10025,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>387</v>
@@ -10075,25 +10075,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>388</v>
@@ -10125,25 +10125,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>389</v>
@@ -10178,25 +10178,25 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K135">
         <v>0.1957494407158837</v>
@@ -10225,13 +10225,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -10243,10 +10243,10 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K136">
         <v>0.1948051948051948</v>
@@ -10275,28 +10275,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F137">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K137">
         <v>0.1935483870967742</v>
@@ -10328,10 +10328,10 @@
         <v>0.0625</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>390</v>
@@ -10381,16 +10381,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>15</v>
@@ -10428,25 +10428,25 @@
         <v>0.0625</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K140">
         <v>0.1923076923076923</v>
@@ -10525,28 +10525,28 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K142">
         <v>0.1904761904761905</v>
@@ -10575,25 +10575,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>393</v>
@@ -10628,22 +10628,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>394</v>
@@ -10681,16 +10681,16 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>16</v>
@@ -10725,28 +10725,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05882352941176471</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E146">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="F146">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K146">
         <v>0.1891891891891892</v>
@@ -10775,7 +10775,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10793,10 +10793,10 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K147">
         <v>0.188715953307393</v>
@@ -10825,25 +10825,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0576923076923077</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>396</v>
@@ -10881,16 +10881,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
         <v>17</v>
@@ -10925,7 +10925,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10943,10 +10943,10 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K150">
         <v>0.1847246891651865</v>
@@ -10975,28 +10975,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K151">
         <v>0.184375</v>
@@ -11025,13 +11025,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>398</v>
@@ -11075,13 +11075,13 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>399</v>
@@ -11125,25 +11125,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>400</v>
@@ -11175,13 +11175,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -11193,10 +11193,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K155">
         <v>0.1831052383199623</v>
@@ -11231,13 +11231,13 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
@@ -11246,7 +11246,7 @@
         <v>19</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K156">
         <v>0.1824104234527687</v>
@@ -11275,28 +11275,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K157">
         <v>0.1818181818181818</v>
@@ -11325,25 +11325,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F158">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>401</v>
@@ -11381,13 +11381,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="E159">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F159">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -11425,28 +11425,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K160">
         <v>0.1818181818181818</v>
@@ -11475,25 +11475,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>403</v>
@@ -11581,16 +11581,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>22</v>
@@ -11631,16 +11631,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>22</v>
@@ -11725,25 +11725,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>408</v>
@@ -11775,25 +11775,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04347826086956522</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>409</v>
@@ -11825,28 +11825,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0425531914893617</v>
+        <v>0.04</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K168">
         <v>0.1774193548387097</v>
@@ -11875,28 +11875,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04225352112676056</v>
+        <v>0.04</v>
       </c>
       <c r="C169">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K169">
         <v>0.1755725190839695</v>
@@ -11925,25 +11925,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>410</v>
@@ -11975,25 +11975,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>411</v>
@@ -12025,25 +12025,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03947368421052631</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>412</v>
@@ -12081,13 +12081,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F173">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -12125,25 +12125,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>414</v>
@@ -12175,28 +12175,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03846153846153846</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E175">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K175">
         <v>0.1724137931034483</v>
@@ -12225,25 +12225,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>415</v>
@@ -12275,25 +12275,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03614457831325301</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C177">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>416</v>
@@ -12346,7 +12346,7 @@
         <v>27</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K178">
         <v>0.1695178849144635</v>
@@ -12375,25 +12375,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>417</v>
@@ -12425,25 +12425,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>418</v>
@@ -12475,25 +12475,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F181">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>419</v>
@@ -12531,13 +12531,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12581,13 +12581,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E183">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F183">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12625,25 +12625,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F184">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>422</v>
@@ -12675,25 +12675,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E185">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F185">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>423</v>
@@ -12725,25 +12725,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03125</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E186">
-        <v>0.96</v>
+        <v>0.71</v>
       </c>
       <c r="F186">
-        <v>0.04000000000000004</v>
+        <v>0.29</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>424</v>
@@ -12775,28 +12775,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E187">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="F187">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K187">
         <v>0.1666666666666667</v>
@@ -12825,25 +12825,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03076923076923077</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D188">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E188">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="F188">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>425</v>
@@ -12875,25 +12875,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>426</v>
@@ -12925,25 +12925,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>427</v>
@@ -12975,25 +12975,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>428</v>
@@ -13031,16 +13031,16 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>35</v>
@@ -13078,22 +13078,22 @@
         <v>0.02777777777777778</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>430</v>
@@ -13125,25 +13125,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>431</v>
@@ -13175,13 +13175,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>0.5</v>
@@ -13193,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>432</v>
@@ -13231,13 +13231,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -13275,25 +13275,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>434</v>
@@ -13325,25 +13325,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02702702702702703</v>
+        <v>0.02611940298507463</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D198">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E198">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F198">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>435</v>
@@ -13375,25 +13375,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02631578947368421</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F199">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>436</v>
@@ -13425,25 +13425,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02611940298507463</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C200">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>437</v>
@@ -13475,25 +13475,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02597402597402598</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E201">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="F201">
-        <v>0.29</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>438</v>
@@ -13525,25 +13525,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02564102564102564</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E202">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F202">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>439</v>
@@ -13575,25 +13575,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>440</v>
@@ -13625,25 +13625,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02542372881355932</v>
+        <v>0.025</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F204">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>441</v>
@@ -13681,16 +13681,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>39</v>
@@ -13725,25 +13725,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>443</v>
@@ -13775,25 +13775,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.025</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>444</v>
@@ -13825,25 +13825,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>445</v>
@@ -13875,25 +13875,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02422145328719723</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C209">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>446</v>
@@ -13931,13 +13931,13 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
@@ -13975,25 +13975,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>448</v>
@@ -14025,25 +14025,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F212">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>449</v>
@@ -14075,28 +14075,28 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02272727272727273</v>
+        <v>0.02181818181818182</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K213">
         <v>0.16</v>
@@ -14125,28 +14125,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E214">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F214">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K214">
         <v>0.16</v>
@@ -14175,25 +14175,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02181818181818182</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C215">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E215">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>450</v>
@@ -14228,22 +14228,22 @@
         <v>0.02173913043478261</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E216">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F216">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>451</v>
@@ -14275,28 +14275,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K217">
         <v>0.1574803149606299</v>
@@ -14325,28 +14325,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E218">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="F218">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K218">
         <v>0.1574468085106383</v>
@@ -14375,28 +14375,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="F219">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K219">
         <v>0.1574074074074074</v>
@@ -14425,25 +14425,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02083333333333333</v>
+        <v>0.02</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E220">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F220">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>452</v>
@@ -14475,25 +14475,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>453</v>
@@ -14525,28 +14525,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K222">
         <v>0.1538461538461539</v>
@@ -14581,13 +14581,13 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
@@ -14625,13 +14625,13 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E224">
         <v>0.92</v>
@@ -14643,7 +14643,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>455</v>
@@ -14675,25 +14675,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F225">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>456</v>
@@ -14725,25 +14725,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01923076923076923</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E226">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F226">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>457</v>
@@ -14775,25 +14775,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E227">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F227">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>458</v>
@@ -14825,25 +14825,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01904761904761905</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>459</v>
@@ -14875,25 +14875,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01869158878504673</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F229">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>460</v>
@@ -14925,28 +14925,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01851851851851852</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E230">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F230">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K230">
         <v>0.1463414634146341</v>
@@ -14975,25 +14975,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01851851851851852</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E231">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F231">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>461</v>
@@ -15025,28 +15025,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01834862385321101</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C232">
         <v>2</v>
       </c>
       <c r="D232">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E232">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F232">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K232">
         <v>0.1428571428571428</v>
@@ -15075,25 +15075,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01829268292682927</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>462</v>
@@ -15125,25 +15125,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F234">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>463</v>
@@ -15175,25 +15175,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>464</v>
@@ -15225,28 +15225,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E236">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K236">
         <v>0.1428571428571428</v>
@@ -15281,13 +15281,13 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
@@ -15325,25 +15325,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>466</v>
@@ -15375,25 +15375,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F239">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>467</v>
@@ -15425,25 +15425,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>468</v>
@@ -15475,25 +15475,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E241">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F241">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>469</v>
@@ -15525,25 +15525,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E242">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F242">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>470</v>
@@ -15575,25 +15575,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E243">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F243">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>471</v>
@@ -15625,25 +15625,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01639344262295082</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D244">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>472</v>
@@ -15675,25 +15675,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E245">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F245">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>473</v>
@@ -15725,25 +15725,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01587301587301587</v>
+        <v>0.015625</v>
       </c>
       <c r="C246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>474</v>
@@ -15775,25 +15775,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01587301587301587</v>
+        <v>0.01547987616099071</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D247">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E247">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F247">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>475</v>
@@ -15825,25 +15825,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.015625</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E248">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F248">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>476</v>
@@ -15875,25 +15875,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01547987616099071</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C249">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F249">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>477</v>
@@ -15925,25 +15925,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01492537313432836</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E250">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F250">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>478</v>
@@ -15975,25 +15975,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01492537313432836</v>
+        <v>0.01367521367521368</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D251">
-        <v>13</v>
+        <v>412</v>
       </c>
       <c r="E251">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F251">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>66</v>
+        <v>1731</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>479</v>
@@ -16025,25 +16025,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0136986301369863</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E252">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F252">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>480</v>
@@ -16075,25 +16075,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01367521367521368</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C253">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="E253">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F253">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>1731</v>
+        <v>76</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>481</v>
@@ -16125,25 +16125,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01351351351351351</v>
+        <v>0.01293900184842884</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D254">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="E254">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F254">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>73</v>
+        <v>534</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>482</v>
@@ -16175,25 +16175,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01298701298701299</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E255">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F255">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>483</v>
@@ -16225,25 +16225,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01293900184842884</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C256">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="E256">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F256">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>534</v>
+        <v>78</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>484</v>
@@ -16275,25 +16275,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01282051282051282</v>
+        <v>0.0125</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E257">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F257">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>485</v>
@@ -16325,25 +16325,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01265822784810127</v>
+        <v>0.01185344827586207</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D258">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E258">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F258">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>78</v>
+        <v>917</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>486</v>
@@ -16375,25 +16375,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0125</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E259">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F259">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>487</v>
@@ -16425,25 +16425,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01185344827586207</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C260">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>917</v>
+        <v>89</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>488</v>
@@ -16475,25 +16475,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01136363636363636</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E261">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F261">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>489</v>
@@ -16525,25 +16525,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01111111111111111</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>490</v>
@@ -16575,25 +16575,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01098901098901099</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E263">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F263">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>491</v>
@@ -16625,25 +16625,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0108695652173913</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E264">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F264">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>492</v>
@@ -16675,28 +16675,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0108695652173913</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D265">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K265">
         <v>0.1428571428571428</v>
@@ -16725,25 +16725,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01075268817204301</v>
+        <v>0.01</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E266">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F266">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>493</v>
@@ -16775,25 +16775,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01072386058981233</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C267">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267">
-        <v>369</v>
+        <v>100</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>494</v>
@@ -16825,28 +16825,28 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="C268">
         <v>2</v>
       </c>
       <c r="D268">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E268">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F268">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K268">
         <v>0.140625</v>
@@ -16875,25 +16875,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.009900990099009901</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E269">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F269">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>495</v>
@@ -16925,28 +16925,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.009852216748768473</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E270">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F270">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K270">
         <v>0.1386861313868613</v>
@@ -16975,13 +16975,13 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.009803921568627451</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E271">
         <v>0.97</v>
@@ -16993,10 +16993,10 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K271">
         <v>0.1384615384615385</v>
@@ -17025,25 +17025,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.009708737864077669</v>
+        <v>0.009641873278236915</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="E272">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F272">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>102</v>
+        <v>719</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>496</v>
@@ -17075,25 +17075,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.009708737864077669</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E273">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F273">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>497</v>
@@ -17125,28 +17125,28 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.009641873278236915</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C274">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="E274">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F274">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>719</v>
+        <v>106</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K274">
         <v>0.1366120218579235</v>
@@ -17175,25 +17175,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.009615384615384616</v>
+        <v>0.009108910891089108</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D275">
-        <v>10</v>
+        <v>605</v>
       </c>
       <c r="E275">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F275">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>103</v>
+        <v>2502</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>498</v>
@@ -17225,25 +17225,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.009345794392523364</v>
+        <v>0.008639308855291577</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D276">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E276">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F276">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>106</v>
+        <v>459</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>499</v>
@@ -17275,25 +17275,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.009108910891089108</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C277">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>605</v>
+        <v>13</v>
       </c>
       <c r="E277">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F277">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>2502</v>
+        <v>115</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>500</v>
@@ -17325,25 +17325,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.008639308855291577</v>
+        <v>0.008522727272727272</v>
       </c>
       <c r="C278">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D278">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="E278">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F278">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>459</v>
+        <v>698</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>501</v>
@@ -17375,25 +17375,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.008620689655172414</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E279">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F279">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>502</v>
@@ -17425,25 +17425,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.008522727272727272</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C280">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="E280">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F280">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>698</v>
+        <v>118</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>503</v>
@@ -17475,25 +17475,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.008403361344537815</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E281">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F281">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>504</v>
@@ -17525,25 +17525,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.008403361344537815</v>
+        <v>0.006640106241699867</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D282">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="E282">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F282">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>118</v>
+        <v>748</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>505</v>
@@ -17575,25 +17575,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.007692307692307693</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E283">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F283">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>506</v>
@@ -17625,28 +17625,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.006640106241699867</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C284">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="E284">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F284">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>748</v>
+        <v>163</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K284">
         <v>0.1333333333333333</v>
@@ -17675,25 +17675,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.006535947712418301</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="E285">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="F285">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>507</v>
@@ -17725,7 +17725,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.006097560975609756</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -17743,7 +17743,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>508</v>
@@ -17775,25 +17775,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.005988023952095809</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>509</v>
@@ -17825,25 +17825,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.00558659217877095</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E288">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F288">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>510</v>
@@ -17875,25 +17875,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.0053475935828877</v>
+        <v>0.004686035613870665</v>
       </c>
       <c r="C289">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D289">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E289">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F289">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>372</v>
+        <v>1062</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>511</v>
@@ -17925,28 +17925,28 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.004807692307692308</v>
+        <v>0.004561403508771929</v>
       </c>
       <c r="C290">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D290">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="E290">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F290">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>207</v>
+        <v>2837</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K290">
         <v>0.1323529411764706</v>
@@ -17975,28 +17975,28 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.004686035613870665</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C291">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E291">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F291">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>1062</v>
+        <v>234</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K291">
         <v>0.1322505800464037</v>
@@ -18025,25 +18025,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.004561403508771929</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C292">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D292">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="E292">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F292">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>2837</v>
+        <v>251</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>512</v>
@@ -18075,25 +18075,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.00425531914893617</v>
+        <v>0.003898635477582846</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E293">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F293">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>234</v>
+        <v>511</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>513</v>
@@ -18125,25 +18125,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.003968253968253968</v>
+        <v>0.003584229390681004</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E294">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F294">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>514</v>
@@ -18175,25 +18175,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.003898635477582846</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E295">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F295">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>511</v>
+        <v>289</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>515</v>
@@ -18225,25 +18225,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.003584229390681004</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E296">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F296">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>516</v>
@@ -18275,28 +18275,28 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.003448275862068965</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E297">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F297">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K297">
         <v>0.1290322580645161</v>
@@ -18321,30 +18321,6 @@
       </c>
     </row>
     <row r="298" spans="1:17">
-      <c r="A298" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B298">
-        <v>0.003378378378378379</v>
-      </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-      <c r="D298">
-        <v>5</v>
-      </c>
-      <c r="E298">
-        <v>0.8</v>
-      </c>
-      <c r="F298">
-        <v>0.2</v>
-      </c>
-      <c r="G298" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298">
-        <v>295</v>
-      </c>
       <c r="J298" s="1" t="s">
         <v>517</v>
       </c>
@@ -18371,30 +18347,6 @@
       </c>
     </row>
     <row r="299" spans="1:17">
-      <c r="A299" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299">
-        <v>0.002976190476190476</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>25</v>
-      </c>
-      <c r="E299">
-        <v>0.96</v>
-      </c>
-      <c r="F299">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299">
-        <v>335</v>
-      </c>
       <c r="J299" s="1" t="s">
         <v>518</v>
       </c>
@@ -18422,7 +18374,7 @@
     </row>
     <row r="300" spans="1:17">
       <c r="J300" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K300">
         <v>0.125</v>
@@ -18916,7 +18868,7 @@
     </row>
     <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K319">
         <v>0.125</v>
@@ -19670,7 +19622,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K348">
         <v>0.1214953271028037</v>
@@ -19696,7 +19648,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K349">
         <v>0.1212121212121212</v>
@@ -20138,7 +20090,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K366">
         <v>0.1176470588235294</v>
@@ -20372,7 +20324,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K375">
         <v>0.1153846153846154</v>
@@ -20528,7 +20480,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K381">
         <v>0.1122448979591837</v>
@@ -20944,7 +20896,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K397">
         <v>0.1111111111111111</v>
@@ -21334,7 +21286,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K412">
         <v>0.1101003764115433</v>
@@ -21386,7 +21338,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K414">
         <v>0.1076923076923077</v>
@@ -21490,7 +21442,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K418">
         <v>0.1071428571428571</v>
@@ -21542,7 +21494,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K420">
         <v>0.1052631578947368</v>
@@ -21854,7 +21806,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K432">
         <v>0.1016949152542373</v>
@@ -21906,7 +21858,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K434">
         <v>0.1</v>
@@ -22764,7 +22716,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K467">
         <v>0.09865470852017937</v>
@@ -23102,7 +23054,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K480">
         <v>0.09448818897637795</v>
@@ -23232,7 +23184,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K485">
         <v>0.09090909090909091</v>
@@ -23336,7 +23288,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K489">
         <v>0.09090909090909091</v>
@@ -23388,7 +23340,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K491">
         <v>0.09090909090909091</v>
@@ -23440,7 +23392,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K493">
         <v>0.09090909090909091</v>
@@ -23570,7 +23522,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K498">
         <v>0.09090909090909091</v>
@@ -24116,7 +24068,7 @@
     </row>
     <row r="519" spans="10:17">
       <c r="J519" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K519">
         <v>0.08888888888888889</v>
@@ -24168,7 +24120,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K521">
         <v>0.08860759493670886</v>
@@ -24194,7 +24146,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K522">
         <v>0.08852459016393442</v>
@@ -24480,7 +24432,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K533">
         <v>0.084070796460177</v>
@@ -25130,7 +25082,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K558">
         <v>0.08163265306122448</v>
@@ -25156,7 +25108,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K559">
         <v>0.08131487889273356</v>
@@ -25208,7 +25160,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K561">
         <v>0.08035714285714286</v>
@@ -25390,7 +25342,7 @@
     </row>
     <row r="568" spans="10:17">
       <c r="J568" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K568">
         <v>0.07894736842105263</v>
@@ -25416,7 +25368,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K569">
         <v>0.07878787878787878</v>
@@ -25494,7 +25446,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K572">
         <v>0.07692307692307693</v>
@@ -26014,7 +25966,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K592">
         <v>0.07547169811320754</v>
@@ -26066,7 +26018,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K594">
         <v>0.075</v>
@@ -26092,7 +26044,7 @@
     </row>
     <row r="595" spans="10:17">
       <c r="J595" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K595">
         <v>0.07352941176470588</v>
@@ -26222,7 +26174,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K600">
         <v>0.07142857142857142</v>
@@ -26924,7 +26876,7 @@
     </row>
     <row r="627" spans="10:17">
       <c r="J627" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K627">
         <v>0.07142857142857142</v>
@@ -26950,7 +26902,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K628">
         <v>0.0707070707070707</v>
@@ -27106,7 +27058,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K634">
         <v>0.06818181818181818</v>
@@ -27158,7 +27110,7 @@
     </row>
     <row r="636" spans="10:17">
       <c r="J636" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K636">
         <v>0.06685236768802229</v>
@@ -27730,7 +27682,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K658">
         <v>0.06542056074766354</v>
@@ -27886,7 +27838,7 @@
     </row>
     <row r="664" spans="10:17">
       <c r="J664" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K664">
         <v>0.06382978723404255</v>
@@ -28068,7 +28020,7 @@
     </row>
     <row r="671" spans="10:17">
       <c r="J671" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K671">
         <v>0.0625</v>
@@ -28146,7 +28098,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K674">
         <v>0.0625</v>
@@ -28484,7 +28436,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K687">
         <v>0.06060606060606061</v>
@@ -28718,7 +28670,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K696">
         <v>0.05893186003683241</v>
@@ -28822,7 +28774,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K700">
         <v>0.05882352941176471</v>
@@ -29082,7 +29034,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K710">
         <v>0.0583941605839416</v>
@@ -29602,7 +29554,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K730">
         <v>0.05263157894736842</v>
@@ -30148,7 +30100,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K751">
         <v>0.04838709677419355</v>
@@ -30824,7 +30776,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K777">
         <v>0.04347826086956522</v>
@@ -30954,7 +30906,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K782">
         <v>0.04347826086956522</v>
@@ -30980,7 +30932,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K783">
         <v>0.04347826086956522</v>
@@ -31136,7 +31088,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K789">
         <v>0.04179728317659352</v>
@@ -31292,7 +31244,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K795">
         <v>0.04117647058823529</v>
@@ -31344,7 +31296,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K797">
         <v>0.04</v>
@@ -31448,7 +31400,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K801">
         <v>0.03846153846153846</v>
@@ -31500,7 +31452,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K803">
         <v>0.03846153846153846</v>
@@ -31578,7 +31530,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K806">
         <v>0.03783783783783784</v>
@@ -31838,7 +31790,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K816">
         <v>0.03571428571428571</v>
@@ -31864,7 +31816,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K817">
         <v>0.03571428571428571</v>
@@ -31890,7 +31842,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K818">
         <v>0.03571428571428571</v>
@@ -31968,7 +31920,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K821">
         <v>0.03448275862068965</v>
@@ -32384,7 +32336,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K837">
         <v>0.03191489361702127</v>
@@ -32540,7 +32492,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K843">
         <v>0.03076923076923077</v>
@@ -32592,7 +32544,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K845">
         <v>0.0303030303030303</v>
@@ -32696,7 +32648,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K849">
         <v>0.02857142857142857</v>
@@ -32774,7 +32726,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K852">
         <v>0.02777777777777778</v>
@@ -32904,7 +32856,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K857">
         <v>0.02702702702702703</v>
@@ -32982,7 +32934,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K860">
         <v>0.02666666666666667</v>
@@ -33034,7 +32986,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K862">
         <v>0.02564102564102564</v>
@@ -33086,7 +33038,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K864">
         <v>0.02564102564102564</v>
@@ -33190,7 +33142,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K868">
         <v>0.025</v>
@@ -33424,7 +33376,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K877">
         <v>0.02272727272727273</v>
@@ -33658,7 +33610,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K886">
         <v>0.02</v>
@@ -33736,7 +33688,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K889">
         <v>0.01724137931034483</v>
@@ -33944,7 +33896,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K897">
         <v>0.01337792642140468</v>
@@ -34074,7 +34026,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K902">
         <v>0.01027397260273973</v>
@@ -34126,7 +34078,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K904">
         <v>0.00425531914893617</v>
